--- a/ThirdLab/Points.xlsx
+++ b/ThirdLab/Points.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -785,14 +785,35 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Н</t>
+          <t>Б</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Б</t>
         </is>
       </c>
     </row>

--- a/ThirdLab/Points.xlsx
+++ b/ThirdLab/Points.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,6 +817,48 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
